--- a/data/trans_camb/P25_3-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P25_3-Edad-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K31"/>
+  <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,6 +526,12 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,20 +548,26 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
       <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -572,37 +584,67 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>Mz1/M2</t>
+          <t>M5/M2</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M2</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M2</t>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
         </is>
       </c>
     </row>
@@ -618,6 +660,12 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +680,77 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,27</t>
+          <t>1,19</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-2,07</t>
+          <t>-1,4</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-1,12</t>
+          <t>3,25</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>1,2</t>
+          <t>0,29</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,48</t>
+          <t>3,99</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>5,03</t>
+          <t>0,92</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,72</t>
+          <t>0,4</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-0,81</t>
+          <t>4,85</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>1,78</t>
+          <t>-2,6</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>-2,66</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>1,05</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>-0,5</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>4,05</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>-1,11</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>0,86</t>
         </is>
       </c>
     </row>
@@ -685,47 +763,77 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-4,69; 3,11</t>
+          <t>-1,6; 4,92</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-8,17; 0,0</t>
+          <t>-4,88; 0,0</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-5,66; 1,9</t>
+          <t>-0,54; 8,0</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-1,19; 4,63</t>
+          <t>-5,5; 6,77</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-1,78; 3,2</t>
+          <t>0,03; 9,48</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>1,44; 10,86</t>
+          <t>-2,02; 3,76</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-1,82; 2,97</t>
+          <t>-2,28; 2,9</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-3,64; 0,76</t>
+          <t>0,8; 10,19</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-0,86; 4,78</t>
+          <t>-7,89; 2,02</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>-8,65; 2,04</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>-0,89; 3,13</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>-2,26; 1,0</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>1,14; 7,59</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>-4,92; 2,68</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>-2,34; 4,69</t>
         </is>
       </c>
     </row>
@@ -738,7 +846,7 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>13,11%</t>
+          <t>84,7%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
@@ -748,37 +856,67 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-54,13%</t>
+          <t>231,58%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>102,95%</t>
+          <t>6,23%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>41,47%</t>
+          <t>419,63%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>433,04%</t>
+          <t>72,06%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>44,08%</t>
+          <t>31,64%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-49,54%</t>
+          <t>381,56%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>109,45%</t>
+          <t>-42,43%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>-43,02%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>78,51%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>-37,21%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>302,71%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>-20,64%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>25,26%</t>
         </is>
       </c>
     </row>
@@ -806,32 +944,62 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
+          <t>-77,56; 446,49</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="G7" s="2" t="inlineStr">
+      <c r="H7" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>-22,24; —</t>
-        </is>
-      </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-70,48; 578,17</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
+          <t>-36,93; —</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>-86,4; 86,17</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>-86,33; 100,4</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>-52,12; 659,58</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>-59,57; 828,36</t>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>14,74; 1566,55</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>-71,14; 86,98</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>-51,55; 291,24</t>
         </is>
       </c>
     </row>
@@ -848,47 +1016,77 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,15</t>
+          <t>0,25</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-1,33</t>
+          <t>-1,21</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-0,53</t>
+          <t>4,72</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-1,88</t>
+          <t>-6,3</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
+          <t>-1,1</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>-1,86</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
           <t>-0,23</t>
         </is>
       </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>1,64</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>-0,81</t>
-        </is>
-      </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-0,81</t>
+          <t>-0,17</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,53</t>
+          <t>2,96</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>1,21</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>-0,75</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>-0,75</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>2,44</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>-1,91</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>0,02</t>
         </is>
       </c>
     </row>
@@ -901,47 +1099,77 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-4,48; 3,84</t>
+          <t>-4,35; 4,32</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-5,44; 2,34</t>
+          <t>-5,58; 2,28</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-4,83; 4,68</t>
+          <t>-0,34; 10,74</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-5,91; 0,92</t>
+          <t>-12,75; -1,04</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-4,79; 2,99</t>
+          <t>-5,86; 3,08</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-3,04; 5,94</t>
+          <t>-6,08; 1,47</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-3,38; 2,13</t>
+          <t>-4,71; 3,3</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-3,52; 1,77</t>
+          <t>-4,66; 3,43</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-2,73; 3,98</t>
+          <t>-1,54; 8,03</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-3,81; 6,09</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>-3,65; 1,93</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>-3,88; 1,82</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>-0,82; 6,17</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>-5,82; 1,63</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>-3,76; 3,23</t>
         </is>
       </c>
     </row>
@@ -954,47 +1182,77 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>3,52%</t>
+          <t>5,94%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-30,91%</t>
+          <t>-28,31%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-12,2%</t>
+          <t>110,71%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-51,46%</t>
+          <t>-70,02%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-6,41%</t>
+          <t>-28,9%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>44,93%</t>
+          <t>-49,81%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-20,31%</t>
+          <t>-6,24%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-20,33%</t>
+          <t>-4,6%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>13,15%</t>
+          <t>83,13%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>22,81%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>-18,61%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>-18,69%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>60,9%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>-29,6%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>0,34%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1265,77 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-64,93; 185,41</t>
+          <t>-67,04; 238,71</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-79,6; 118,56</t>
+          <t>-82,07; 106,9</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-80,63; 276,29</t>
+          <t>-13,43; 516,77</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-92,05; 87,14</t>
+          <t>-93,44; -0,03</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-74,54; 170,73</t>
+          <t>-100,0; 298,83</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-54,56; 323,1</t>
+          <t>-92,62; 153,75</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-63,78; 94,11</t>
+          <t>-73,95; 222,44</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-63,32; 82,53</t>
+          <t>-78,79; 227,45</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-50,26; 160,72</t>
+          <t>-39,05; 491,86</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>-54,22; 181,87</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>-62,15; 83,16</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>-63,78; 85,68</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>-20,79; 238,65</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>-65,72; 40,94</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>-58,54; 105,61</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1352,77 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-1,44</t>
+          <t>0,58</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-2,92</t>
+          <t>0,14</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-1,72</t>
+          <t>3,49</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>1,08</t>
+          <t>0,1</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,46</t>
+          <t>2,73</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>1,54</t>
+          <t>1,13</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-0,25</t>
+          <t>0,68</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-1,27</t>
+          <t>2,93</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,08</t>
+          <t>3,34</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>4,74</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>0,83</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>0,4</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>3,17</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>1,89</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>3,65</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1435,77 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-11,95; 6,68</t>
+          <t>-6,97; 7,08</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-13,53; 5,46</t>
+          <t>-6,99; 7,79</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-13,51; 6,0</t>
+          <t>-4,75; 9,62</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-2,58; 4,78</t>
+          <t>-7,03; 8,76</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-3,14; 3,99</t>
+          <t>-4,21; 10,75</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-2,87; 5,59</t>
+          <t>-2,49; 4,86</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-6,1; 4,4</t>
+          <t>-3,06; 4,32</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-7,27; 3,22</t>
+          <t>-1,46; 7,95</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-6,34; 4,66</t>
+          <t>-2,48; 8,98</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>-0,37; 10,57</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>-3,63; 4,53</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>-4,31; 4,28</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>-1,36; 7,7</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>-2,92; 6,85</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>-1,0; 8,43</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1518,77 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-10,48%</t>
+          <t>5,16%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-21,19%</t>
+          <t>1,21%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-12,49%</t>
+          <t>31,17%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>19,89%</t>
+          <t>0,66%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>8,45%</t>
+          <t>22,64%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>28,17%</t>
+          <t>20,73%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>-2,56%</t>
+          <t>12,5%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-13,27%</t>
+          <t>53,61%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>0,86%</t>
+          <t>39,77%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>67,79%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>10,07%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>4,86%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>38,31%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>16,52%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>37,77%</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1601,77 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-57,75; 92,07</t>
+          <t>-46,22; 84,8</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-63,1; 61,84</t>
+          <t>-47,24; 101,95</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-59,54; 76,94</t>
+          <t>-31,37; 129,2</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-36,33; 143,17</t>
+          <t>-39,7; 79,97</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-42,58; 117,13</t>
+          <t>-30,72; 112,8</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-41,2; 142,15</t>
+          <t>-36,16; 126,19</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-43,47; 67,41</t>
+          <t>-40,57; 127,26</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-50,32; 53,23</t>
+          <t>-26,25; 203,91</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-44,3; 67,41</t>
+          <t>-23,83; 147,49</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>-5,14; 232,12</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>-32,64; 72,4</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>-40,13; 65,77</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>-13,76; 114,08</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>-22,52; 67,91</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>-11,23; 102,64</t>
         </is>
       </c>
     </row>
@@ -1280,47 +1688,77 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>2,6</t>
+          <t>2,93</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>3,9</t>
+          <t>3,42</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>6,58</t>
+          <t>9,69</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-0,17</t>
+          <t>-2,34</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>3,68</t>
+          <t>0,94</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>4,19</t>
+          <t>-0,62</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>1,17</t>
+          <t>3,57</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>3,77</t>
+          <t>7,77</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>5,35</t>
+          <t>-1,73</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>2,15</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>1,12</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>3,49</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>8,7</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>-2,05</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>1,52</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1771,77 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-2,98; 8,23</t>
+          <t>-2,74; 8,87</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-1,99; 10,07</t>
+          <t>-3,17; 9,43</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-0,22; 14,63</t>
+          <t>3,2; 16,64</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-5,67; 5,54</t>
+          <t>-10,4; 5,84</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-1,82; 8,86</t>
+          <t>-7,09; 9,4</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-2,26; 10,73</t>
+          <t>-6,28; 4,94</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-3,04; 4,9</t>
+          <t>-2,31; 8,95</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-0,47; 7,64</t>
+          <t>2,0; 14,72</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>0,31; 10,64</t>
+          <t>-8,74; 5,92</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>-4,84; 10,01</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>-2,94; 4,78</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>-0,89; 7,58</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>4,28; 13,45</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>-7,36; 2,9</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>-4,61; 6,44</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1854,77 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>20,6%</t>
+          <t>22,97%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>30,98%</t>
+          <t>26,78%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>52,25%</t>
+          <t>75,87%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-1,14%</t>
+          <t>-10,42%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>25,01%</t>
+          <t>4,91%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>28,45%</t>
+          <t>-4,11%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>8,53%</t>
+          <t>23,76%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>27,51%</t>
+          <t>51,69%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>39,09%</t>
+          <t>-7,6%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>11,36%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>8,0%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>25,03%</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>62,47%</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>-9,07%</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>7,99%</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1937,77 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-19,4; 86,98</t>
+          <t>-18,62; 89,33</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-13,11; 103,29</t>
+          <t>-19,08; 98,28</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-4,35; 140,62</t>
+          <t>17,53; 168,61</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-32,56; 47,94</t>
+          <t>-38,86; 31,7</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-11,06; 72,58</t>
+          <t>-30,82; 63,79</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-15,08; 92,99</t>
+          <t>-35,16; 40,61</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-19,39; 41,94</t>
+          <t>-13,34; 73,71</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-3,46; 64,77</t>
+          <t>10,56; 120,72</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>1,24; 85,76</t>
+          <t>-33,05; 30,64</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>-21,97; 67,29</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>-17,62; 40,77</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>-6,39; 62,58</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>26,12; 110,37</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>-29,67; 13,93</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>-21,25; 38,05</t>
         </is>
       </c>
     </row>
@@ -1496,47 +2024,77 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>4,25</t>
+          <t>4,55</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>6,65</t>
+          <t>6,64</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>14,83</t>
+          <t>12,81</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>5,76</t>
+          <t>-1,61</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>2,53</t>
+          <t>-3,61</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>13,26</t>
+          <t>5,59</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>4,98</t>
+          <t>2,38</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>4,56</t>
+          <t>13,41</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>14,02</t>
+          <t>-2,37</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>-2,13</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>5,06</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>4,47</t>
+        </is>
+      </c>
+      <c r="O20" s="2" t="inlineStr">
+        <is>
+          <t>13,12</t>
+        </is>
+      </c>
+      <c r="P20" s="2" t="inlineStr">
+        <is>
+          <t>-2,0</t>
+        </is>
+      </c>
+      <c r="Q20" s="2" t="inlineStr">
+        <is>
+          <t>-2,84</t>
         </is>
       </c>
     </row>
@@ -1549,47 +2107,77 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-3,75; 12,1</t>
+          <t>-2,96; 12,2</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-1,33; 14,76</t>
+          <t>-1,66; 14,13</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>5,79; 23,94</t>
+          <t>3,69; 21,02</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-1,93; 13,6</t>
+          <t>-11,65; 8,01</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-5,28; 9,75</t>
+          <t>-13,06; 7,29</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>4,39; 21,9</t>
+          <t>-2,64; 13,34</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-1,12; 10,48</t>
+          <t>-5,0; 9,79</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-1,35; 10,08</t>
+          <t>5,1; 23,37</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>7,97; 20,5</t>
+          <t>-11,44; 7,59</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>-11,17; 6,42</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>-0,33; 10,64</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>-1,47; 9,74</t>
+        </is>
+      </c>
+      <c r="O21" s="2" t="inlineStr">
+        <is>
+          <t>7,28; 20,14</t>
+        </is>
+      </c>
+      <c r="P21" s="2" t="inlineStr">
+        <is>
+          <t>-8,68; 4,76</t>
+        </is>
+      </c>
+      <c r="Q21" s="2" t="inlineStr">
+        <is>
+          <t>-10,22; 3,36</t>
         </is>
       </c>
     </row>
@@ -1602,47 +2190,77 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>19,4%</t>
+          <t>20,78%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>30,39%</t>
+          <t>30,33%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>67,74%</t>
+          <t>58,48%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>25,4%</t>
+          <t>-4,63%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>11,17%</t>
+          <t>-9,83%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>58,51%</t>
+          <t>24,58%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>22,37%</t>
+          <t>10,46%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>20,44%</t>
+          <t>58,91%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>62,91%</t>
+          <t>-6,55%</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>-5,93%</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>22,64%</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>20,02%</t>
+        </is>
+      </c>
+      <c r="O22" s="2" t="inlineStr">
+        <is>
+          <t>58,73%</t>
+        </is>
+      </c>
+      <c r="P22" s="2" t="inlineStr">
+        <is>
+          <t>-5,63%</t>
+        </is>
+      </c>
+      <c r="Q22" s="2" t="inlineStr">
+        <is>
+          <t>-7,82%</t>
         </is>
       </c>
     </row>
@@ -1655,47 +2273,77 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-14,37; 68,28</t>
+          <t>-11,75; 69,53</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-5,45; 82,28</t>
+          <t>-6,06; 82,64</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>21,41; 138,27</t>
+          <t>11,44; 117,12</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-7,63; 75,67</t>
+          <t>-29,24; 27,43</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-19,85; 51,12</t>
+          <t>-31,15; 24,01</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>15,16; 115,26</t>
+          <t>-10,29; 72,66</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-4,55; 54,36</t>
+          <t>-18,48; 53,0</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-4,58; 53,92</t>
+          <t>19,49; 126,49</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>30,59; 105,13</t>
+          <t>-27,6; 23,74</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>-27,95; 20,75</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>-1,57; 55,3</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>-5,85; 50,21</t>
+        </is>
+      </c>
+      <c r="O23" s="2" t="inlineStr">
+        <is>
+          <t>27,59; 101,27</t>
+        </is>
+      </c>
+      <c r="P23" s="2" t="inlineStr">
+        <is>
+          <t>-21,87; 15,06</t>
+        </is>
+      </c>
+      <c r="Q23" s="2" t="inlineStr">
+        <is>
+          <t>-24,79; 10,02</t>
         </is>
       </c>
     </row>
@@ -1712,47 +2360,77 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>-12,91</t>
+          <t>-12,21</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>-1,47</t>
+          <t>-0,9</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>4,47</t>
+          <t>-5,06</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>-1,98</t>
+          <t>-1,86</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>-1,35</t>
+          <t>-11,82</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>0,51</t>
+          <t>-1,46</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>-6,7</t>
+          <t>-0,73</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>-1,4</t>
+          <t>1,02</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>2,2</t>
+          <t>2,07</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>2,54</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>-6,09</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>-0,81</t>
+        </is>
+      </c>
+      <c r="O24" s="2" t="inlineStr">
+        <is>
+          <t>-1,66</t>
+        </is>
+      </c>
+      <c r="P24" s="2" t="inlineStr">
+        <is>
+          <t>0,55</t>
+        </is>
+      </c>
+      <c r="Q24" s="2" t="inlineStr">
+        <is>
+          <t>-3,51</t>
         </is>
       </c>
     </row>
@@ -1765,47 +2443,77 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-22,8; -3,52</t>
+          <t>-21,07; -2,71</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-12,54; 7,61</t>
+          <t>-10,86; 9,5</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-8,25; 15,03</t>
+          <t>-15,71; 5,9</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-11,68; 6,85</t>
+          <t>-12,16; 8,17</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-11,5; 7,88</t>
+          <t>-22,55; -1,05</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-10,05; 12,3</t>
+          <t>-10,9; 6,35</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-14,52; -0,7</t>
+          <t>-10,24; 7,65</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-9,2; 4,86</t>
+          <t>-9,02; 11,4</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-6,61; 9,94</t>
+          <t>-9,1; 13,32</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>-9,55; 14,53</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>-12,06; 0,53</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>-6,99; 6,19</t>
+        </is>
+      </c>
+      <c r="O25" s="2" t="inlineStr">
+        <is>
+          <t>-8,61; 6,14</t>
+        </is>
+      </c>
+      <c r="P25" s="2" t="inlineStr">
+        <is>
+          <t>-8,21; 8,3</t>
+        </is>
+      </c>
+      <c r="Q25" s="2" t="inlineStr">
+        <is>
+          <t>-12,55; 4,56</t>
         </is>
       </c>
     </row>
@@ -1818,47 +2526,77 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>-41,0%</t>
+          <t>-39,31%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>-4,66%</t>
+          <t>-2,9%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>14,2%</t>
+          <t>-16,31%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>-6,08%</t>
+          <t>-7,17%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>-4,13%</t>
+          <t>-32,89%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>1,57%</t>
+          <t>-4,47%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>-20,85%</t>
+          <t>-2,25%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>-4,35%</t>
+          <t>3,12%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>6,85%</t>
+          <t>6,16%</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>7,67%</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>-19,09%</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>-2,53%</t>
+        </is>
+      </c>
+      <c r="O26" s="2" t="inlineStr">
+        <is>
+          <t>-5,21%</t>
+        </is>
+      </c>
+      <c r="P26" s="2" t="inlineStr">
+        <is>
+          <t>1,82%</t>
+        </is>
+      </c>
+      <c r="Q26" s="2" t="inlineStr">
+        <is>
+          <t>-10,24%</t>
         </is>
       </c>
     </row>
@@ -1871,47 +2609,77 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-61,24; -12,71</t>
+          <t>-60,77; -12,26</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-33,53; 31,2</t>
+          <t>-30,69; 36,61</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-21,93; 58,28</t>
+          <t>-43,49; 23,94</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-30,91; 25,87</t>
+          <t>-39,88; 39,94</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-30,63; 29,04</t>
+          <t>-53,18; -3,08</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-27,27; 45,1</t>
+          <t>-28,73; 23,09</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-38,98; -1,85</t>
+          <t>-27,35; 27,19</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-24,88; 16,91</t>
+          <t>-25,16; 39,06</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-17,86; 33,65</t>
+          <t>-22,53; 47,53</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>-23,57; 55,1</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>-34,51; 3,08</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>-19,59; 21,7</t>
+        </is>
+      </c>
+      <c r="O27" s="2" t="inlineStr">
+        <is>
+          <t>-25,13; 20,93</t>
+        </is>
+      </c>
+      <c r="P27" s="2" t="inlineStr">
+        <is>
+          <t>-24,11; 31,18</t>
+        </is>
+      </c>
+      <c r="Q27" s="2" t="inlineStr">
+        <is>
+          <t>-31,3; 16,17</t>
         </is>
       </c>
     </row>
@@ -1928,47 +2696,77 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>-1,21</t>
+          <t>-0,41</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>0,16</t>
+          <t>0,91</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>3,57</t>
+          <t>4,99</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>0,24</t>
+          <t>-2,06</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>0,65</t>
+          <t>-1,32</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>4,67</t>
+          <t>0,22</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>-0,47</t>
+          <t>0,77</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>0,41</t>
+          <t>4,84</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>4,12</t>
+          <t>0,83</t>
+        </is>
+      </c>
+      <c r="L28" s="2" t="inlineStr">
+        <is>
+          <t>1,1</t>
+        </is>
+      </c>
+      <c r="M28" s="2" t="inlineStr">
+        <is>
+          <t>-0,09</t>
+        </is>
+      </c>
+      <c r="N28" s="2" t="inlineStr">
+        <is>
+          <t>0,84</t>
+        </is>
+      </c>
+      <c r="O28" s="2" t="inlineStr">
+        <is>
+          <t>4,92</t>
+        </is>
+      </c>
+      <c r="P28" s="2" t="inlineStr">
+        <is>
+          <t>-0,62</t>
+        </is>
+      </c>
+      <c r="Q28" s="2" t="inlineStr">
+        <is>
+          <t>-0,11</t>
         </is>
       </c>
     </row>
@@ -1981,47 +2779,77 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-4,85; 1,45</t>
+          <t>-3,53; 2,36</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-2,96; 3,39</t>
+          <t>-2,02; 3,79</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>0,27; 7,23</t>
+          <t>1,73; 8,28</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-2,54; 2,69</t>
+          <t>-5,39; 1,37</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-2,26; 3,1</t>
+          <t>-4,65; 2,34</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>1,55; 7,9</t>
+          <t>-2,45; 2,64</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>-2,56; 1,56</t>
+          <t>-1,66; 3,47</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-1,63; 2,64</t>
+          <t>1,73; 8,2</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>1,87; 6,62</t>
+          <t>-2,93; 4,29</t>
+        </is>
+      </c>
+      <c r="L29" s="2" t="inlineStr">
+        <is>
+          <t>-2,63; 4,76</t>
+        </is>
+      </c>
+      <c r="M29" s="2" t="inlineStr">
+        <is>
+          <t>-2,14; 1,62</t>
+        </is>
+      </c>
+      <c r="N29" s="2" t="inlineStr">
+        <is>
+          <t>-0,89; 2,73</t>
+        </is>
+      </c>
+      <c r="O29" s="2" t="inlineStr">
+        <is>
+          <t>2,68; 7,21</t>
+        </is>
+      </c>
+      <c r="P29" s="2" t="inlineStr">
+        <is>
+          <t>-3,08; 1,92</t>
+        </is>
+      </c>
+      <c r="Q29" s="2" t="inlineStr">
+        <is>
+          <t>-2,77; 2,31</t>
         </is>
       </c>
     </row>
@@ -2034,47 +2862,77 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>-8,46%</t>
+          <t>-3,04%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>1,09%</t>
+          <t>6,67%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>25,04%</t>
+          <t>36,74%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>1,69%</t>
+          <t>-11,12%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>4,6%</t>
+          <t>-7,43%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>32,91%</t>
+          <t>1,55%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
+          <t>5,39%</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>33,96%</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="inlineStr">
+        <is>
+          <t>4,36%</t>
+        </is>
+      </c>
+      <c r="L30" s="2" t="inlineStr">
+        <is>
+          <t>5,82%</t>
+        </is>
+      </c>
+      <c r="M30" s="2" t="inlineStr">
+        <is>
+          <t>-0,63%</t>
+        </is>
+      </c>
+      <c r="N30" s="2" t="inlineStr">
+        <is>
+          <t>6,0%</t>
+        </is>
+      </c>
+      <c r="O30" s="2" t="inlineStr">
+        <is>
+          <t>35,29%</t>
+        </is>
+      </c>
+      <c r="P30" s="2" t="inlineStr">
+        <is>
           <t>-3,28%</t>
         </is>
       </c>
-      <c r="J30" s="2" t="inlineStr">
-        <is>
-          <t>2,88%</t>
-        </is>
-      </c>
-      <c r="K30" s="2" t="inlineStr">
-        <is>
-          <t>28,98%</t>
+      <c r="Q30" s="2" t="inlineStr">
+        <is>
+          <t>-0,61%</t>
         </is>
       </c>
     </row>
@@ -2087,63 +2945,100 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-29,06; 11,8</t>
+          <t>-22,81; 19,95</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-19,27; 27,7</t>
+          <t>-13,51; 30,77</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>0,88; 57,91</t>
+          <t>10,7; 68,27</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-15,84; 21,65</t>
+          <t>-26,6; 8,62</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-14,5; 24,25</t>
+          <t>-24,12; 14,58</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>9,48; 61,09</t>
+          <t>-15,68; 20,36</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>-16,46; 11,65</t>
+          <t>-10,92; 27,69</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>-10,84; 20,42</t>
+          <t>11,2; 63,1</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>11,87; 51,12</t>
+          <t>-13,84; 24,89</t>
+        </is>
+      </c>
+      <c r="L31" s="2" t="inlineStr">
+        <is>
+          <t>-12,8; 28,23</t>
+        </is>
+      </c>
+      <c r="M31" s="2" t="inlineStr">
+        <is>
+          <t>-14,31; 12,33</t>
+        </is>
+      </c>
+      <c r="N31" s="2" t="inlineStr">
+        <is>
+          <t>-5,88; 21,07</t>
+        </is>
+      </c>
+      <c r="O31" s="2" t="inlineStr">
+        <is>
+          <t>17,62; 55,06</t>
+        </is>
+      </c>
+      <c r="P31" s="2" t="inlineStr">
+        <is>
+          <t>-15,43; 11,11</t>
+        </is>
+      </c>
+      <c r="Q31" s="2" t="inlineStr">
+        <is>
+          <t>-14,05; 13,43</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="A4:A7"/>
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="C1:G1"/>
     <mergeCell ref="A12:A15"/>
-    <mergeCell ref="I1:K1"/>
     <mergeCell ref="A28:A31"/>
     <mergeCell ref="A20:A23"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A24:A27"/>
     <mergeCell ref="A16:A19"/>
+    <mergeCell ref="M1:Q1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
